--- a/local_cache/19C0B0Z0-TT/模具参数汇总.xlsx
+++ b/local_cache/19C0B0Z0-TT/模具参数汇总.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0128-AD010018</t>
+          <t>DC0128-AD010019</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0128-AD01_0018</t>
+          <t>DC0128-AD01_0019</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0128-AD040018</t>
+          <t>DC0128-AD040019</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0128-ADBT0018</t>
+          <t>DC0128-ADBT0019</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0128-ADIE0018</t>
+          <t>DC0128-ADIE0019</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0128-ADIE_0012</t>
+          <t>DC0128-ADIE_0013</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0128-ADBT_0012</t>
+          <t>DC0128-ADBT_0013</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
